--- a/results/mp/logistic/corona/confidence/126/masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="137">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,22 +40,31 @@
     <t>name</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>collapse</t>
   </si>
   <si>
     <t>lowest</t>
@@ -64,358 +73,358 @@
     <t>war</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>cancelled</t>
   </si>
   <si>
     <t>problem</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>cancelled</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>shame</t>
   </si>
   <si>
     <t>anxiety</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>no</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>selfish</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>saudi</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>shit</t>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>fight</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>with</t>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>:</t>
   </si>
   <si>
     <t>prices</t>
   </si>
   <si>
-    <t>of</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>are</t>
   </si>
   <si>
     <t>a</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
     <t>the</t>
   </si>
   <si>
     <t>.</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>in</t>
   </si>
   <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>,</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>easter</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
 </sst>
 </file>
@@ -773,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -784,7 +793,7 @@
         <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -842,13 +851,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -860,19 +869,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -884,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -892,13 +901,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -910,19 +919,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -934,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -942,13 +951,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.797945205479452</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C5">
-        <v>233</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>233</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -960,19 +969,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -984,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -992,13 +1001,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7894736842105263</v>
+        <v>0.791095890410959</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>231</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>231</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1010,19 +1019,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1034,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1042,13 +1051,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7586206896551724</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1060,19 +1069,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K7">
-        <v>0.8947368421052632</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1084,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1092,13 +1101,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7567567567567568</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1110,19 +1119,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K8">
-        <v>0.8787878787878788</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L8">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M8">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1134,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1192,13 +1201,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7368421052631579</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1242,13 +1251,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7307692307692307</v>
+        <v>0.7</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1260,19 +1269,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L11">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="M11">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1284,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1292,13 +1301,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.72</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1316,13 +1325,13 @@
         <v>73</v>
       </c>
       <c r="K12">
-        <v>0.8328981723237598</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L12">
-        <v>319</v>
+        <v>39</v>
       </c>
       <c r="M12">
-        <v>319</v>
+        <v>39</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1334,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1345,10 +1354,10 @@
         <v>0.6842105263157895</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1360,19 +1369,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K13">
-        <v>0.8205128205128205</v>
+        <v>0.8276762402088773</v>
       </c>
       <c r="L13">
-        <v>32</v>
+        <v>317</v>
       </c>
       <c r="M13">
-        <v>32</v>
+        <v>317</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1384,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1392,13 +1401,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6521739130434783</v>
+        <v>0.68</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1416,13 +1425,13 @@
         <v>75</v>
       </c>
       <c r="K14">
-        <v>0.8125</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L14">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M14">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1434,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1442,13 +1451,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6333333333333333</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1460,19 +1469,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K15">
-        <v>0.8113207547169812</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L15">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="M15">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1484,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1492,13 +1501,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1510,19 +1519,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K16">
-        <v>0.80625</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L16">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1534,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1542,13 +1551,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5932203389830508</v>
+        <v>0.6</v>
       </c>
       <c r="C17">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1560,19 +1569,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>78</v>
       </c>
       <c r="K17">
-        <v>0.8046875</v>
+        <v>0.78125</v>
       </c>
       <c r="L17">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M17">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1584,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1592,13 +1601,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5661375661375662</v>
+        <v>0.5978835978835979</v>
       </c>
       <c r="C18">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D18">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1610,19 +1619,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>79</v>
       </c>
       <c r="K18">
-        <v>0.7931034482758621</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="M18">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1634,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1642,13 +1651,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.55</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1660,19 +1669,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>80</v>
       </c>
       <c r="K19">
-        <v>0.7816901408450704</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L19">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="M19">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1684,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1692,13 +1701,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5369127516778524</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C20">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1710,19 +1719,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>81</v>
       </c>
       <c r="K20">
-        <v>0.7804878048780488</v>
+        <v>0.775</v>
       </c>
       <c r="L20">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="M20">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1734,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1742,13 +1751,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5329457364341085</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C21">
-        <v>275</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>275</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1760,19 +1769,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>82</v>
       </c>
       <c r="K21">
-        <v>0.7777777777777778</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L21">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="M21">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1784,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1792,13 +1801,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0.525</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1810,19 +1819,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>83</v>
       </c>
       <c r="K22">
-        <v>0.7659574468085106</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L22">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1834,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1842,13 +1851,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4838709677419355</v>
+        <v>0.5213178294573644</v>
       </c>
       <c r="C23">
-        <v>15</v>
+        <v>269</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>269</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1860,19 +1869,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>84</v>
       </c>
       <c r="K23">
-        <v>0.75</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1884,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1916,13 +1925,13 @@
         <v>85</v>
       </c>
       <c r="K24">
-        <v>0.7291666666666666</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L24">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M24">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1934,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1942,13 +1951,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4814814814814815</v>
+        <v>0.4832214765100671</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1960,19 +1969,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>86</v>
       </c>
       <c r="K25">
-        <v>0.725</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1984,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1992,13 +2001,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4705882352941176</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2010,19 +2019,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>87</v>
       </c>
       <c r="K26">
-        <v>0.7142857142857143</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L26">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M26">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2034,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2042,13 +2051,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4615384615384616</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="C27">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2060,19 +2069,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>88</v>
       </c>
       <c r="K27">
-        <v>0.7037037037037037</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2084,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2092,13 +2101,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4375</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C28">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2110,19 +2119,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>89</v>
       </c>
       <c r="K28">
-        <v>0.6976744186046512</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M28">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2134,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2142,13 +2151,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4363636363636363</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C29">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D29">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2160,19 +2169,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>90</v>
       </c>
       <c r="K29">
-        <v>0.6857142857142857</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L29">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M29">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2184,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2192,13 +2201,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4266666666666667</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C30">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2210,19 +2219,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>91</v>
       </c>
       <c r="K30">
-        <v>0.6842105263157895</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L30">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2234,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2242,13 +2251,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4222222222222222</v>
+        <v>0.4083333333333333</v>
       </c>
       <c r="C31">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D31">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2260,19 +2269,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>92</v>
       </c>
       <c r="K31">
-        <v>0.6818181818181818</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2284,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2292,13 +2301,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4193548387096774</v>
+        <v>0.4</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D32">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2310,19 +2319,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K32">
-        <v>0.6818181818181818</v>
+        <v>0.65</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>221</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>221</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2334,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>7</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2342,13 +2351,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4166666666666667</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D33">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2360,19 +2369,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>94</v>
       </c>
       <c r="K33">
-        <v>0.6558823529411765</v>
+        <v>0.65</v>
       </c>
       <c r="L33">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2384,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>117</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2392,13 +2401,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4107142857142857</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C34">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D34">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2410,19 +2419,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>95</v>
       </c>
       <c r="K34">
-        <v>0.625</v>
+        <v>0.64</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2434,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2442,13 +2451,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3818181818181818</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C35">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D35">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2460,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>96</v>
@@ -2492,13 +2501,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.358974358974359</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C36">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D36">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2510,19 +2519,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K36">
-        <v>0.6169491525423729</v>
+        <v>0.6</v>
       </c>
       <c r="L36">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="M36">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2534,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>113</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2542,13 +2551,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2888888888888889</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C37">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D37">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2560,19 +2569,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>98</v>
       </c>
       <c r="K37">
-        <v>0.6153846153846154</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L37">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="M37">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2584,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2592,13 +2601,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2619047619047619</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="C38">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D38">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2610,31 +2619,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>99</v>
       </c>
       <c r="K38">
-        <v>0.6150627615062761</v>
+        <v>0.5850340136054422</v>
       </c>
       <c r="L38">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="M38">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2642,13 +2651,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2597402597402597</v>
+        <v>0.275</v>
       </c>
       <c r="C39">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D39">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2660,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>100</v>
@@ -2692,13 +2701,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2375</v>
+        <v>0.2555555555555555</v>
       </c>
       <c r="C40">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D40">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2710,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>101</v>
@@ -2742,13 +2751,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1662198391420912</v>
+        <v>0.2207792207792208</v>
       </c>
       <c r="C41">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="D41">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2760,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>311</v>
+        <v>60</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>102</v>
       </c>
       <c r="K41">
-        <v>0.5652173913043478</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L41">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M41">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2784,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2792,13 +2801,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.09333333333333334</v>
+        <v>0.1715817694369973</v>
       </c>
       <c r="C42">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="D42">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2810,19 +2819,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>103</v>
       </c>
       <c r="K42">
-        <v>0.5652173913043478</v>
+        <v>0.5690376569037657</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="M42">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2834,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>10</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2842,37 +2851,37 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05982905982905983</v>
+        <v>0.09</v>
       </c>
       <c r="C43">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D43">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E43">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>104</v>
       </c>
       <c r="K43">
-        <v>0.5638297872340425</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L43">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M43">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2884,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2892,37 +2901,37 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01988636363636364</v>
+        <v>0.04436860068259386</v>
       </c>
       <c r="C44">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E44">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>690</v>
+        <v>280</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>105</v>
       </c>
       <c r="K44">
-        <v>0.5428571428571428</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L44">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2934,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2942,37 +2951,37 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.01810344827586207</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="C45">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D45">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="E45">
-        <v>0.05</v>
+        <v>0.18</v>
       </c>
       <c r="F45">
-        <v>0.95</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>1139</v>
+        <v>2323</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>106</v>
       </c>
       <c r="K45">
-        <v>0.5294117647058824</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L45">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="M45">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2984,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2992,37 +3001,37 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0169061707523246</v>
+        <v>0.0193842645381984</v>
       </c>
       <c r="C46">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D46">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E46">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="F46">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>2326</v>
+        <v>860</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>107</v>
       </c>
       <c r="K46">
-        <v>0.5280898876404494</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L46">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="M46">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3034,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3042,37 +3051,37 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.01571366215626364</v>
+        <v>0.01810344827586207</v>
       </c>
       <c r="C47">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D47">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E47">
-        <v>0.33</v>
+        <v>0.05</v>
       </c>
       <c r="F47">
-        <v>0.6699999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>2255</v>
+        <v>1139</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>108</v>
       </c>
       <c r="K47">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="L47">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M47">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3084,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3092,37 +3101,37 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01547887778136085</v>
+        <v>0.01496725912067353</v>
       </c>
       <c r="C48">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D48">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E48">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="F48">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>3053</v>
+        <v>2106</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>109</v>
       </c>
       <c r="K48">
-        <v>0.5</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3134,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3142,31 +3151,31 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.0126522961574508</v>
+        <v>0.01484828921885087</v>
       </c>
       <c r="C49">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D49">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E49">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="F49">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>2107</v>
+        <v>3052</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>110</v>
       </c>
       <c r="K49">
-        <v>0.4814814814814815</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L49">
         <v>13</v>
@@ -3184,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3192,37 +3201,37 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.01187648456057007</v>
+        <v>0.01341752170481452</v>
       </c>
       <c r="C50">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D50">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E50">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F50">
-        <v>0.37</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>111</v>
       </c>
       <c r="K50">
-        <v>0.4814814814814815</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L50">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M50">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3234,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3242,37 +3251,37 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.009775171065493646</v>
+        <v>0.01045296167247387</v>
       </c>
       <c r="C51">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D51">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="E51">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="F51">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>5065</v>
+        <v>2272</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>112</v>
       </c>
       <c r="K51">
-        <v>0.4666666666666667</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L51">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M51">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3284,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3292,37 +3301,37 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.009693053311793215</v>
+        <v>0.008578670306102555</v>
       </c>
       <c r="C52">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D52">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E52">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="F52">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>4904</v>
+        <v>5085</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>113</v>
       </c>
       <c r="K52">
-        <v>0.4516129032258064</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L52">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M52">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3334,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3342,37 +3351,37 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.008383791336748951</v>
+        <v>0.008297915401740538</v>
       </c>
       <c r="C53">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D53">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="E53">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="F53">
-        <v>0.62</v>
+        <v>0.43</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>2129</v>
+        <v>4900</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>114</v>
       </c>
       <c r="K53">
-        <v>0.4285714285714285</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L53">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M53">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3384,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3392,37 +3401,37 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.007896924355777223</v>
+        <v>0.007004436142890497</v>
       </c>
       <c r="C54">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D54">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E54">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F54">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>2387</v>
+        <v>4253</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>115</v>
       </c>
       <c r="K54">
-        <v>0.4246575342465753</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L54">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M54">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3434,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3442,37 +3451,37 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.006782039289055191</v>
+        <v>0.006526806526806527</v>
       </c>
       <c r="C55">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D55">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="E55">
-        <v>0.64</v>
+        <v>0.48</v>
       </c>
       <c r="F55">
-        <v>0.36</v>
+        <v>0.52</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>4247</v>
+        <v>2131</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>116</v>
       </c>
       <c r="K55">
-        <v>0.3859649122807017</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L55">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M55">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3484,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3492,37 +3501,37 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.005687203791469194</v>
+        <v>0.006090597639893415</v>
       </c>
       <c r="C56">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D56">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E56">
-        <v>0.67</v>
+        <v>0.74</v>
       </c>
       <c r="F56">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>3147</v>
+        <v>2611</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>117</v>
       </c>
       <c r="K56">
-        <v>0.3823529411764706</v>
+        <v>0.328125</v>
       </c>
       <c r="L56">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M56">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3534,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3542,37 +3551,37 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.0049486105824134</v>
+        <v>0.005037783375314861</v>
       </c>
       <c r="C57">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D57">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E57">
-        <v>0.78</v>
+        <v>0.61</v>
       </c>
       <c r="F57">
-        <v>0.22</v>
+        <v>0.39</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>2614</v>
+        <v>3160</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>118</v>
       </c>
       <c r="K57">
-        <v>0.375</v>
+        <v>0.2950819672131147</v>
       </c>
       <c r="L57">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M57">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3584,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3592,13 +3601,13 @@
         <v>119</v>
       </c>
       <c r="K58">
-        <v>0.3076923076923077</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L58">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M58">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3610,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3618,13 +3627,13 @@
         <v>120</v>
       </c>
       <c r="K59">
-        <v>0.3050847457627119</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L59">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M59">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3636,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3644,25 +3653,25 @@
         <v>121</v>
       </c>
       <c r="K60">
-        <v>0.2786885245901639</v>
+        <v>0.1962616822429906</v>
       </c>
       <c r="L60">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M60">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>44</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3670,7 +3679,7 @@
         <v>122</v>
       </c>
       <c r="K61">
-        <v>0.1944444444444444</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="L61">
         <v>14</v>
@@ -3688,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>58</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3696,25 +3705,25 @@
         <v>123</v>
       </c>
       <c r="K62">
-        <v>0.1574074074074074</v>
+        <v>0.0972972972972973</v>
       </c>
       <c r="L62">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M62">
         <v>18</v>
       </c>
       <c r="N62">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>91</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -3722,13 +3731,13 @@
         <v>124</v>
       </c>
       <c r="K63">
-        <v>0.1290322580645161</v>
+        <v>0.04498269896193772</v>
       </c>
       <c r="L63">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M63">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3740,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>108</v>
+        <v>276</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -3748,25 +3757,25 @@
         <v>125</v>
       </c>
       <c r="K64">
-        <v>0.1032608695652174</v>
+        <v>0.04220779220779221</v>
       </c>
       <c r="L64">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M64">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N64">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>165</v>
+        <v>295</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -3774,25 +3783,25 @@
         <v>126</v>
       </c>
       <c r="K65">
-        <v>0.05190311418685121</v>
+        <v>0.04013377926421405</v>
       </c>
       <c r="L65">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="M65">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>274</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -3800,25 +3809,25 @@
         <v>127</v>
       </c>
       <c r="K66">
-        <v>0.04761904761904762</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="L66">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M66">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N66">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>520</v>
+        <v>400</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -3826,25 +3835,25 @@
         <v>128</v>
       </c>
       <c r="K67">
-        <v>0.04590984974958263</v>
+        <v>0.03676470588235294</v>
       </c>
       <c r="L67">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="M67">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="N67">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="O67">
-        <v>0.04000000000000004</v>
+        <v>0.13</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>1143</v>
+        <v>524</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -3852,25 +3861,25 @@
         <v>129</v>
       </c>
       <c r="K68">
-        <v>0.04326923076923077</v>
+        <v>0.03117505995203837</v>
       </c>
       <c r="L68">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M68">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -3878,337 +3887,389 @@
         <v>130</v>
       </c>
       <c r="K69">
-        <v>0.0360576923076923</v>
+        <v>0.01888888888888889</v>
       </c>
       <c r="L69">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M69">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N69">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O69">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>401</v>
+        <v>883</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K70">
-        <v>0.02040816326530612</v>
+        <v>0.01731275875047045</v>
       </c>
       <c r="L70">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M70">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="N70">
-        <v>0.63</v>
+        <v>0.74</v>
       </c>
       <c r="O70">
-        <v>0.37</v>
+        <v>0.26</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>1248</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K71">
-        <v>0.01729323308270677</v>
+        <v>0.01729559748427673</v>
       </c>
       <c r="L71">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="M71">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="N71">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O71">
-        <v>0.22</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>2614</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="K72">
-        <v>0.01607584501236603</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="L72">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M72">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="N72">
-        <v>0.67</v>
+        <v>0.76</v>
       </c>
       <c r="O72">
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>2387</v>
+        <v>968</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K73">
-        <v>0.01575299306868305</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="L73">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M73">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N73">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>1562</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K74">
-        <v>0.01541425818882466</v>
+        <v>0.0145413870246085</v>
       </c>
       <c r="L74">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M74">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N74">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>1022</v>
+        <v>881</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K75">
-        <v>0.01381331100879029</v>
+        <v>0.01450189155107188</v>
       </c>
       <c r="L75">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M75">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N75">
-        <v>0.87</v>
+        <v>0.74</v>
       </c>
       <c r="O75">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>2356</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="K76">
-        <v>0.01209583624098628</v>
+        <v>0.01213389121338912</v>
       </c>
       <c r="L76">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="M76">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="N76">
-        <v>0.64</v>
+        <v>0.88</v>
       </c>
       <c r="O76">
-        <v>0.36</v>
+        <v>0.12</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>4247</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="K77">
-        <v>0.01131008482563619</v>
+        <v>0.01191454396055875</v>
       </c>
       <c r="L77">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M77">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="N77">
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
       <c r="O77">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>3147</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K78">
-        <v>0.009775171065493646</v>
+        <v>0.01109989909182644</v>
       </c>
       <c r="L78">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M78">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="N78">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="O78">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>5065</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K79">
-        <v>0.00889248181083266</v>
+        <v>0.01046998604001861</v>
       </c>
       <c r="L79">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M79">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="N79">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
       <c r="O79">
-        <v>0.52</v>
+        <v>0.4</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>4904</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="K80">
-        <v>0.007919049714034315</v>
+        <v>0.007849293563579277</v>
       </c>
       <c r="L80">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M80">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="N80">
-        <v>0.33</v>
+        <v>0.61</v>
       </c>
       <c r="O80">
-        <v>0.6699999999999999</v>
+        <v>0.39</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>2255</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K81">
-        <v>0.005557930739632322</v>
+        <v>0.007029876977152899</v>
       </c>
       <c r="L81">
+        <v>36</v>
+      </c>
+      <c r="M81">
+        <v>80</v>
+      </c>
+      <c r="N81">
+        <v>0.45</v>
+      </c>
+      <c r="O81">
+        <v>0.55</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K82">
+        <v>0.006063432835820896</v>
+      </c>
+      <c r="L82">
         <v>13</v>
       </c>
-      <c r="M81">
-        <v>53</v>
-      </c>
-      <c r="N81">
-        <v>0.25</v>
-      </c>
-      <c r="O81">
-        <v>0.75</v>
-      </c>
-      <c r="P81" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q81">
-        <v>2326</v>
+      <c r="M82">
+        <v>27</v>
+      </c>
+      <c r="N82">
+        <v>0.48</v>
+      </c>
+      <c r="O82">
+        <v>0.52</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K83">
+        <v>0.005689277899343544</v>
+      </c>
+      <c r="L83">
+        <v>13</v>
+      </c>
+      <c r="M83">
+        <v>37</v>
+      </c>
+      <c r="N83">
+        <v>0.35</v>
+      </c>
+      <c r="O83">
+        <v>0.65</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>2272</v>
       </c>
     </row>
   </sheetData>
